--- a/data/trans_orig/P1415-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1415-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>2825</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8217</v>
+        <v>8145</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006220107687117385</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001894589144748475</v>
+        <v>0.001906941760338581</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01809363329223203</v>
+        <v>0.01793585183810639</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7497</v>
+        <v>7655</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004485072988830326</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01742574422982649</v>
+        <v>0.01779390440644532</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -784,19 +784,19 @@
         <v>4754</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1873</v>
+        <v>1804</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11083</v>
+        <v>10341</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005376050775619216</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002118097800034587</v>
+        <v>0.002039445520547755</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01253245454041596</v>
+        <v>0.01169252905995527</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>451321</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>445929</v>
+        <v>446001</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>453286</v>
+        <v>453280</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9937798923128827</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9819063667077681</v>
+        <v>0.9820641481618937</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9981054108552515</v>
+        <v>0.9980930582396614</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>419</v>
@@ -834,7 +834,7 @@
         <v>428300</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>422733</v>
+        <v>422575</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>430230</v>
@@ -843,7 +843,7 @@
         <v>0.9955149270111697</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9825742557701728</v>
+        <v>0.9822060955935545</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -855,19 +855,19 @@
         <v>879622</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>873293</v>
+        <v>874035</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>882503</v>
+        <v>882572</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9946239492243808</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.987467545459584</v>
+        <v>0.9883074709400448</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9978819021999654</v>
+        <v>0.9979605544794523</v>
       </c>
     </row>
     <row r="6">
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6826</v>
+        <v>6681</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002777798862490634</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.009935339013684147</v>
+        <v>0.009724261307667861</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -980,19 +980,19 @@
         <v>4480</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>993</v>
+        <v>1002</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12065</v>
+        <v>11518</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007340886929332159</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001627051986464815</v>
+        <v>0.001641462165613975</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01977076773449276</v>
+        <v>0.01887353750343221</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -1001,19 +1001,19 @@
         <v>6388</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2556</v>
+        <v>2526</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13891</v>
+        <v>13168</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004924224562439731</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001969968127445356</v>
+        <v>0.001947010384863867</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0107074112508941</v>
+        <v>0.01014984897651391</v>
       </c>
     </row>
     <row r="8">
@@ -1030,7 +1030,7 @@
         <v>685178</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>680261</v>
+        <v>680406</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>687087</v>
@@ -1039,7 +1039,7 @@
         <v>0.9972222011375094</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9900646609863156</v>
+        <v>0.9902757386923319</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1051,19 +1051,19 @@
         <v>605775</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>598190</v>
+        <v>598737</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>609262</v>
+        <v>609253</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9926591130706678</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9802292322655072</v>
+        <v>0.9811264624965677</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9983729480135352</v>
+        <v>0.998358537834386</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1232</v>
@@ -1072,19 +1072,19 @@
         <v>1290954</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1283451</v>
+        <v>1284174</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1294786</v>
+        <v>1294816</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9950757754375603</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9892925887491058</v>
+        <v>0.9898501510234861</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9980300318725546</v>
+        <v>0.9980529896151361</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>6935</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2806</v>
+        <v>2835</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15329</v>
+        <v>15983</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0101705235690797</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004115184904533395</v>
+        <v>0.004157348505521958</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02248036873699257</v>
+        <v>0.02344080845482562</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1197,19 +1197,19 @@
         <v>9891</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4954</v>
+        <v>4825</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16868</v>
+        <v>17214</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01393969643405753</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00698111280987811</v>
+        <v>0.006800215214066551</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02377222479462695</v>
+        <v>0.02426010785562088</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -1218,19 +1218,19 @@
         <v>16826</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10007</v>
+        <v>9885</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26340</v>
+        <v>26983</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01209264307306098</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007191821585202538</v>
+        <v>0.007104421671205263</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01893014983842123</v>
+        <v>0.01939198946099076</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>674928</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>666534</v>
+        <v>665880</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>679057</v>
+        <v>679028</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9898294764309203</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9775196312630076</v>
+        <v>0.9765591915451746</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9958848150954667</v>
+        <v>0.995842651494478</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>656</v>
@@ -1268,19 +1268,19 @@
         <v>699683</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>692706</v>
+        <v>692360</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>704620</v>
+        <v>704749</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9860603035659424</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9762277752053731</v>
+        <v>0.9757398921443792</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.993018887190122</v>
+        <v>0.9931997847859335</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1301</v>
@@ -1289,19 +1289,19 @@
         <v>1374611</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1365097</v>
+        <v>1364454</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1381430</v>
+        <v>1381552</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.987907356926939</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9810698501615791</v>
+        <v>0.9806080105390093</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9928081784147975</v>
+        <v>0.9928955783287947</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>10423</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4672</v>
+        <v>4908</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22020</v>
+        <v>21085</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01695868052695748</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007601277249573787</v>
+        <v>0.007986130083811953</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03582708900705397</v>
+        <v>0.03430631898243262</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1414,19 +1414,19 @@
         <v>8339</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3232</v>
+        <v>3125</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16880</v>
+        <v>17391</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01357612699871154</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005261432945091955</v>
+        <v>0.005087696496015231</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02748054878348525</v>
+        <v>0.02831200184915728</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -1435,19 +1435,19 @@
         <v>18762</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11262</v>
+        <v>11420</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31024</v>
+        <v>32604</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01526788935137611</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009164327460624228</v>
+        <v>0.009293329931440402</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02524536110614973</v>
+        <v>0.02653109814523948</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>604194</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>592597</v>
+        <v>593532</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>609945</v>
+        <v>609709</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9830413194730425</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9641729109929461</v>
+        <v>0.9656936810175675</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9923987227504282</v>
+        <v>0.9920138699161883</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>531</v>
@@ -1485,19 +1485,19 @@
         <v>605925</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>597384</v>
+        <v>596873</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>611032</v>
+        <v>611139</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9864238730012884</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9725194512165147</v>
+        <v>0.9716879981508427</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.994738567054908</v>
+        <v>0.9949123035039847</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1071</v>
@@ -1506,19 +1506,19 @@
         <v>1210118</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1197856</v>
+        <v>1196276</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1217618</v>
+        <v>1217460</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9847321106486239</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9747546388938504</v>
+        <v>0.9734689018547609</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9908356725393759</v>
+        <v>0.9907066700685596</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>8576</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3353</v>
+        <v>3227</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18532</v>
+        <v>18827</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01997052036729329</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007808818108680561</v>
+        <v>0.007515740861445194</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04315502890891638</v>
+        <v>0.0438427081585898</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1631,19 +1631,19 @@
         <v>6066</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2093</v>
+        <v>2929</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12274</v>
+        <v>12228</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01354526954837896</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004674557741038536</v>
+        <v>0.006540657261585596</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02740992657864271</v>
+        <v>0.02730649982995886</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -1652,19 +1652,19 @@
         <v>14641</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8031</v>
+        <v>7409</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25494</v>
+        <v>25393</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01669061649717143</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009155380806085321</v>
+        <v>0.008445750449459766</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0290615270030829</v>
+        <v>0.02894699720076585</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>420853</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>410897</v>
+        <v>410602</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>426076</v>
+        <v>426202</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9800294796327067</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9568449710910837</v>
+        <v>0.9561572918414105</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9921911818913195</v>
+        <v>0.9924842591385548</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>400</v>
@@ -1702,19 +1702,19 @@
         <v>441734</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>435526</v>
+        <v>435572</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>445707</v>
+        <v>444871</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.986454730451621</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9725900734213573</v>
+        <v>0.9726935001700411</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9953254422589615</v>
+        <v>0.9934593427384144</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>786</v>
@@ -1723,19 +1723,19 @@
         <v>862588</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>851735</v>
+        <v>851836</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>869198</v>
+        <v>869820</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9833093835028286</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9709384729969172</v>
+        <v>0.9710530027992345</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9908446191939146</v>
+        <v>0.9915542495505403</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>13273</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7846</v>
+        <v>7029</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24050</v>
+        <v>22393</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04284469785987672</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02532752320037236</v>
+        <v>0.02268988182534188</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07763550852236203</v>
+        <v>0.07228440414711634</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6901</v>
+        <v>6837</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00551729553795058</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01949349295946163</v>
+        <v>0.01931307891983964</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -1869,19 +1869,19 @@
         <v>15226</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8710</v>
+        <v>8771</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25856</v>
+        <v>26398</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02293794009410811</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01312171429255932</v>
+        <v>0.01321415483375333</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03895234045053878</v>
+        <v>0.03976934770817169</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>296513</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>285736</v>
+        <v>287393</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>301940</v>
+        <v>302757</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9571553021401232</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9223644914776381</v>
+        <v>0.9277155958528838</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9746724767996277</v>
+        <v>0.9773101181746582</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>342</v>
@@ -1919,7 +1919,7 @@
         <v>352043</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>347095</v>
+        <v>347159</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>353996</v>
@@ -1928,7 +1928,7 @@
         <v>0.9944827044620494</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9805065070405383</v>
+        <v>0.9806869210801604</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1940,19 +1940,19 @@
         <v>648556</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>637926</v>
+        <v>637384</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>655072</v>
+        <v>655011</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9770620599058919</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9610476595494611</v>
+        <v>0.9602306522918282</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9868782857074406</v>
+        <v>0.9867858451662467</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>13030</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7206</v>
+        <v>6987</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22052</v>
+        <v>22008</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05215198385640829</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02884176959293589</v>
+        <v>0.02796636466809295</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08826256212392723</v>
+        <v>0.08808420211039363</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2065,19 +2065,19 @@
         <v>4470</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1169</v>
+        <v>1084</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11019</v>
+        <v>10895</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01149189207625829</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003004343682016033</v>
+        <v>0.002787084027750325</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02832695334626932</v>
+        <v>0.02800800426206049</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -2086,19 +2086,19 @@
         <v>17500</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11018</v>
+        <v>9945</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>27207</v>
+        <v>27309</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02739434030276022</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01724711470708752</v>
+        <v>0.01556812408459575</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04258878744951608</v>
+        <v>0.04274838940907772</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>236821</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>227799</v>
+        <v>227843</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>242645</v>
+        <v>242864</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9478480161435917</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9117374378760728</v>
+        <v>0.9119157978896064</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9711582304070641</v>
+        <v>0.9720336353319071</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>346</v>
@@ -2136,19 +2136,19 @@
         <v>384509</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>377960</v>
+        <v>378084</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>387810</v>
+        <v>387895</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9885081079237417</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9716730466537307</v>
+        <v>0.9719919957379394</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.996995656317984</v>
+        <v>0.9972129159722497</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>556</v>
@@ -2157,19 +2157,19 @@
         <v>621330</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>611623</v>
+        <v>611521</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>627812</v>
+        <v>628885</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9726056596972398</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9574112125504838</v>
+        <v>0.957251610590922</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9827528852929124</v>
+        <v>0.9844318759154042</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>56970</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>43695</v>
+        <v>42679</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>76357</v>
+        <v>74335</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01662501586766238</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0127510950300598</v>
+        <v>0.01245467498800649</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02228251642670947</v>
+        <v>0.02169238821027855</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>35</v>
@@ -2282,19 +2282,19 @@
         <v>37129</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>26367</v>
+        <v>25936</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>52740</v>
+        <v>51562</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01044381157534716</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007416684957972974</v>
+        <v>0.007295488764144104</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01483497280142697</v>
+        <v>0.01450355128762211</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>85</v>
@@ -2303,19 +2303,19 @@
         <v>94099</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>76559</v>
+        <v>77024</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>116446</v>
+        <v>118432</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01347761169614811</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01096535531725188</v>
+        <v>0.01103203602405748</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01667826142126302</v>
+        <v>0.01696273293150695</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>3369809</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3350422</v>
+        <v>3352444</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3383084</v>
+        <v>3384100</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9833749841323376</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9777174835732898</v>
+        <v>0.9783076117897214</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.98724890496994</v>
+        <v>0.9875453250119935</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3261</v>
@@ -2353,19 +2353,19 @@
         <v>3517969</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3502358</v>
+        <v>3503536</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3528731</v>
+        <v>3529162</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9895561884246529</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.985165027198573</v>
+        <v>0.9854964487123778</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.992583315042027</v>
+        <v>0.9927045112358559</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6420</v>
@@ -2374,19 +2374,19 @@
         <v>6887778</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6865431</v>
+        <v>6863445</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6905318</v>
+        <v>6904853</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9865223883038519</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9833217385787368</v>
+        <v>0.9830372670684931</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.989034644682748</v>
+        <v>0.9889679639759426</v>
       </c>
     </row>
     <row r="27">
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4808</v>
+        <v>4469</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002139299684665833</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01146292556398011</v>
+        <v>0.01065509125084316</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2742,19 +2742,19 @@
         <v>3822</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1001</v>
+        <v>961</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9499</v>
+        <v>9743</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009657373344959808</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002529348233736363</v>
+        <v>0.002428983096743662</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02400324123762314</v>
+        <v>0.02461967216308983</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -2763,19 +2763,19 @@
         <v>4719</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1839</v>
+        <v>1851</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11376</v>
+        <v>10382</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005789017009753782</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002255489843394589</v>
+        <v>0.00227070672769284</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01395462780077686</v>
+        <v>0.01273528495238133</v>
       </c>
     </row>
     <row r="5">
@@ -2792,7 +2792,7 @@
         <v>418566</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>414655</v>
+        <v>414994</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -2801,7 +2801,7 @@
         <v>0.9978607003153341</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9885370744360185</v>
+        <v>0.9893449087491568</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2813,19 +2813,19 @@
         <v>391933</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>386256</v>
+        <v>386012</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>394754</v>
+        <v>394794</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9903426266550401</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9759967587623768</v>
+        <v>0.9753803278369102</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9974706517662636</v>
+        <v>0.9975710169032563</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>792</v>
@@ -2834,19 +2834,19 @@
         <v>810499</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>803842</v>
+        <v>804836</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>813379</v>
+        <v>813367</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9942109829902462</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9860453721992231</v>
+        <v>0.9872647150476188</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9977445101566054</v>
+        <v>0.9977292932723072</v>
       </c>
     </row>
     <row r="6">
@@ -2938,19 +2938,19 @@
         <v>3025</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8656</v>
+        <v>8346</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005123536086683265</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001509306682425155</v>
+        <v>0.001510797314688665</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.014659089448077</v>
+        <v>0.01413409343895131</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -2959,19 +2959,19 @@
         <v>8339</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3736</v>
+        <v>4152</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14920</v>
+        <v>15938</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01479769446513078</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006628969863642267</v>
+        <v>0.007368259198284078</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0264746724018086</v>
+        <v>0.0282810632357323</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -2980,19 +2980,19 @@
         <v>11365</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6512</v>
+        <v>5803</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19438</v>
+        <v>19152</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009847645394638308</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005642869964893022</v>
+        <v>0.005028050184563836</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01684314521162585</v>
+        <v>0.01659519111709022</v>
       </c>
     </row>
     <row r="8">
@@ -3009,19 +3009,19 @@
         <v>587471</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>581840</v>
+        <v>582150</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>589605</v>
+        <v>589604</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9948764639133167</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9853409105519215</v>
+        <v>0.9858659065610487</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9984906933175749</v>
+        <v>0.9984892026853113</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>570</v>
@@ -3030,19 +3030,19 @@
         <v>555205</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>548624</v>
+        <v>547606</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>559808</v>
+        <v>559392</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9852023055348692</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9735253275981912</v>
+        <v>0.9717189367642677</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9933710301363576</v>
+        <v>0.9926317408017138</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1134</v>
@@ -3051,19 +3051,19 @@
         <v>1142675</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1134602</v>
+        <v>1134888</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1147528</v>
+        <v>1148237</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9901523546053617</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9831568547883744</v>
+        <v>0.9834048088829098</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.994357130035107</v>
+        <v>0.9949719498154362</v>
       </c>
     </row>
     <row r="9">
@@ -3155,19 +3155,19 @@
         <v>5394</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1817</v>
+        <v>2645</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10909</v>
+        <v>11015</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008060905839873999</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00271590161105704</v>
+        <v>0.003953510642109991</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01630392726485292</v>
+        <v>0.0164624117110415</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -3176,19 +3176,19 @@
         <v>6671</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2787</v>
+        <v>2810</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13386</v>
+        <v>12520</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01008663124539666</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004213735797565246</v>
+        <v>0.004248808981311881</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02023889546643753</v>
+        <v>0.01892987076490902</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -3197,19 +3197,19 @@
         <v>12065</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6501</v>
+        <v>6521</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19595</v>
+        <v>19786</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009067898803627659</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004886115772085514</v>
+        <v>0.004900894815148431</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01472758687210382</v>
+        <v>0.01487128406806243</v>
       </c>
     </row>
     <row r="11">
@@ -3226,19 +3226,19 @@
         <v>663703</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>658188</v>
+        <v>658082</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>667280</v>
+        <v>666452</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.991939094160126</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9836960727351465</v>
+        <v>0.9835375882889584</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9972840983889429</v>
+        <v>0.99604648935789</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>658</v>
@@ -3247,19 +3247,19 @@
         <v>654715</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>648000</v>
+        <v>648866</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>658599</v>
+        <v>658576</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9899133687546033</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9797611045335617</v>
+        <v>0.981070129235091</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9957862642024348</v>
+        <v>0.9957511910186881</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1290</v>
@@ -3268,19 +3268,19 @@
         <v>1318418</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1310888</v>
+        <v>1310697</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1323982</v>
+        <v>1323962</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9909321011963723</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9852724131278969</v>
+        <v>0.9851287159319381</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9951138842279145</v>
+        <v>0.9950991051848517</v>
       </c>
     </row>
     <row r="12">
@@ -3372,19 +3372,19 @@
         <v>6210</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3006</v>
+        <v>2997</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13249</v>
+        <v>12501</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009612776244110605</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004652430734554006</v>
+        <v>0.004638903065561588</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02050717222181918</v>
+        <v>0.01935041195700218</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -3393,19 +3393,19 @@
         <v>10416</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5155</v>
+        <v>5273</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18773</v>
+        <v>19126</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01604733196692797</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007942084372246725</v>
+        <v>0.00812461161697698</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02892325528382479</v>
+        <v>0.02946624250874942</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -3414,19 +3414,19 @@
         <v>16626</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9505</v>
+        <v>9293</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26954</v>
+        <v>26712</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01283757768613132</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007339356570329284</v>
+        <v>0.007175576135013568</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02081211798284732</v>
+        <v>0.02062515651132754</v>
       </c>
     </row>
     <row r="14">
@@ -3443,19 +3443,19 @@
         <v>639838</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>632799</v>
+        <v>633547</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>643042</v>
+        <v>643051</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9903872237558894</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.979492827778181</v>
+        <v>0.9806495880429978</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.995347569265446</v>
+        <v>0.9953610969344384</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>592</v>
@@ -3464,19 +3464,19 @@
         <v>638661</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>630304</v>
+        <v>629951</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>643922</v>
+        <v>643804</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.983952668033072</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9710767447161752</v>
+        <v>0.9705337574912506</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9920579156277533</v>
+        <v>0.991875388383023</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1168</v>
@@ -3485,19 +3485,19 @@
         <v>1278499</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1268171</v>
+        <v>1268413</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1285620</v>
+        <v>1285832</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9871624223138686</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.979187882017153</v>
+        <v>0.9793748434886725</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9926606434296708</v>
+        <v>0.9928244238649865</v>
       </c>
     </row>
     <row r="15">
@@ -3589,19 +3589,19 @@
         <v>6585</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2342</v>
+        <v>2295</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13507</v>
+        <v>13730</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01377911202446956</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004901446011479769</v>
+        <v>0.004802924923394342</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02826269194476486</v>
+        <v>0.02872941527663928</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -3610,19 +3610,19 @@
         <v>10303</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4700</v>
+        <v>4692</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18082</v>
+        <v>19667</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02073711958035707</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009459247783611662</v>
+        <v>0.009442603350458323</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03639251885800383</v>
+        <v>0.03958406689197652</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -3631,19 +3631,19 @@
         <v>16889</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10180</v>
+        <v>9758</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27717</v>
+        <v>26306</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01732568172398371</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01044330397518578</v>
+        <v>0.01001077120855838</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02843436467967422</v>
+        <v>0.02698654479294087</v>
       </c>
     </row>
     <row r="17">
@@ -3660,19 +3660,19 @@
         <v>471333</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>464411</v>
+        <v>464188</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>475576</v>
+        <v>475623</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9862208879755304</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9717373080552351</v>
+        <v>0.9712705847233607</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9950985539885203</v>
+        <v>0.9951970750766057</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>424</v>
@@ -3681,19 +3681,19 @@
         <v>486546</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>478767</v>
+        <v>477182</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>492149</v>
+        <v>492157</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9792628804196429</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.963607481141996</v>
+        <v>0.9604159331080236</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9905407522163883</v>
+        <v>0.9905573966495418</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>842</v>
@@ -3702,19 +3702,19 @@
         <v>957878</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>947050</v>
+        <v>948461</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>964587</v>
+        <v>965009</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9826743182760163</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9715656353203257</v>
+        <v>0.9730134552070592</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9895566960248142</v>
+        <v>0.9899892287914411</v>
       </c>
     </row>
     <row r="18">
@@ -3806,19 +3806,19 @@
         <v>5145</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1591</v>
+        <v>1567</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13047</v>
+        <v>12439</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01538778717538087</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004758000982123857</v>
+        <v>0.004685733513672049</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03902309136737079</v>
+        <v>0.03720556204611666</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -3827,19 +3827,19 @@
         <v>7259</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3136</v>
+        <v>3056</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15507</v>
+        <v>14569</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0192163093981122</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008301593555177463</v>
+        <v>0.008090524202683603</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04104945215406604</v>
+        <v>0.03856629776895916</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -3848,19 +3848,19 @@
         <v>12404</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6138</v>
+        <v>6104</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20835</v>
+        <v>20706</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01741880313753029</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008620343286364806</v>
+        <v>0.008572270420577109</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0292593155601821</v>
+        <v>0.02907793162772585</v>
       </c>
     </row>
     <row r="20">
@@ -3877,19 +3877,19 @@
         <v>329185</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>321283</v>
+        <v>321891</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>332739</v>
+        <v>332763</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9846122128246191</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9609769086326292</v>
+        <v>0.9627944379538833</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9952419990178761</v>
+        <v>0.9953142664863279</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>347</v>
@@ -3898,19 +3898,19 @@
         <v>370503</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>362255</v>
+        <v>363193</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>374626</v>
+        <v>374706</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9807836906018877</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9589505478459344</v>
+        <v>0.9614337022310409</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9916984064448227</v>
+        <v>0.9919094757973164</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>668</v>
@@ -3919,19 +3919,19 @@
         <v>699688</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>691257</v>
+        <v>691386</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>705954</v>
+        <v>705988</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9825811968624697</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.970740684439818</v>
+        <v>0.9709220683722742</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9913796567136353</v>
+        <v>0.9914277295794229</v>
       </c>
     </row>
     <row r="21">
@@ -4023,19 +4023,19 @@
         <v>8204</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3978</v>
+        <v>3821</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15514</v>
+        <v>14657</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03192274419932939</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01547974459107014</v>
+        <v>0.014867832032784</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06036556787191552</v>
+        <v>0.05702983645419967</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -4044,19 +4044,19 @@
         <v>9632</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4671</v>
+        <v>4498</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19665</v>
+        <v>20044</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02407006226617589</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01167202699914269</v>
+        <v>0.01124010472014737</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04914177186047725</v>
+        <v>0.05008924545903447</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -4065,19 +4065,19 @@
         <v>17836</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10785</v>
+        <v>10491</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28293</v>
+        <v>28530</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02714100703104941</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01641115506578366</v>
+        <v>0.01596450900156067</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04305356715261311</v>
+        <v>0.04341293394960569</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>248794</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>241484</v>
+        <v>242341</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>253020</v>
+        <v>253177</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9680772558006706</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9396344321280842</v>
+        <v>0.9429701635458017</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9845202554089297</v>
+        <v>0.985132167967216</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>294</v>
@@ -4115,19 +4115,19 @@
         <v>390537</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>380504</v>
+        <v>380125</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>395498</v>
+        <v>395671</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9759299377338241</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9508582281395227</v>
+        <v>0.9499107545409652</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9883279730008573</v>
+        <v>0.9887598952798523</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>587</v>
@@ -4136,19 +4136,19 @@
         <v>639331</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>628874</v>
+        <v>628637</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>646382</v>
+        <v>646676</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9728589929689506</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9569464328473868</v>
+        <v>0.9565870660503943</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9835888449342162</v>
+        <v>0.9840354909984392</v>
       </c>
     </row>
     <row r="24">
@@ -4240,19 +4240,19 @@
         <v>35461</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>25592</v>
+        <v>24285</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50498</v>
+        <v>48255</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01044694623710826</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007539529877412198</v>
+        <v>0.007154589266589026</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01487709689041332</v>
+        <v>0.01421625234481037</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>53</v>
@@ -4261,19 +4261,19 @@
         <v>56443</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>42195</v>
+        <v>42844</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>73463</v>
+        <v>72466</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01592383924014611</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01190431354688563</v>
+        <v>0.01208741156938914</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0207256174914267</v>
+        <v>0.02044449505704603</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>88</v>
@@ -4282,19 +4282,19 @@
         <v>91903</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>73595</v>
+        <v>73853</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>112490</v>
+        <v>114142</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01324466614917378</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01060622109711153</v>
+        <v>0.01064338849280903</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01621146936701997</v>
+        <v>0.01644958965521245</v>
       </c>
     </row>
     <row r="26">
@@ -4311,19 +4311,19 @@
         <v>3358889</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3343852</v>
+        <v>3346095</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3368758</v>
+        <v>3370065</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9895530537628917</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9851229031095865</v>
+        <v>0.9857837476551895</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9924604701225878</v>
+        <v>0.9928454107334109</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3285</v>
@@ -4332,19 +4332,19 @@
         <v>3488099</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3471079</v>
+        <v>3472076</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3502347</v>
+        <v>3501698</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9840761607598539</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9792743825085733</v>
+        <v>0.979555504942954</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9880956864531143</v>
+        <v>0.9879125884306108</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6481</v>
@@ -4353,19 +4353,19 @@
         <v>6846989</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6826402</v>
+        <v>6824750</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6865297</v>
+        <v>6865039</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9867553338508263</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9837885306329801</v>
+        <v>0.9835504103447875</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9893937789028885</v>
+        <v>0.989356611507191</v>
       </c>
     </row>
     <row r="27">
